--- a/0926FirstGame/ThreeKillGame/Assets/StreamingAssets/TableFiles/表格测试数据.xlsx
+++ b/0926FirstGame/ThreeKillGame/Assets/StreamingAssets/TableFiles/表格测试数据.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\测试实例文件\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\GameCommon\0926FirstGame\ThreeKillGame\Assets\StreamingAssets\TableFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0135E28-EF73-435C-AC79-9BE12D61AD41}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7171D5C-7F54-4353-8248-09DF234320BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3165" windowWidth="14295" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -61,12 +62,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -475,4 +483,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427F58B2-3BAD-4168-B32E-CFAC753069CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>